--- a/JHKaoHsiungScoreReports/KaoHsingReExamScoreReport/KaoHsingReExamScoreReport/Resources/ReTestDomainReport_ForTeacher.xlsx
+++ b/JHKaoHsiungScoreReports/KaoHsingReExamScoreReport/KaoHsingReExamScoreReport/Resources/ReTestDomainReport_ForTeacher.xlsx
@@ -2,19 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Github_ischool\JHEvaluation\JHKaoHsiungScoreReports\KaoHsingReExamScoreReport\KaoHsingReExamScoreReport\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ischoolProjectGit\JHEvaluation\JHKaoHsiungScoreReports\KaoHsingReExamScoreReport\KaoHsingReExamScoreReport\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19485" windowHeight="10635"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="總表樣板" sheetId="2" r:id="rId1"/>
+    <sheet name="班級樣板" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>座號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,12 +34,24 @@
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>年級</t>
+  </si>
+  <si>
+    <t>班級</t>
+  </si>
+  <si>
+    <t>座號</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -60,6 +73,14 @@
       <name val="標楷體"/>
       <family val="4"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -99,7 +120,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -107,6 +128,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -389,10 +419,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="9" style="5"/>
+    <col min="5" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
